--- a/week_2/spreadsheets/day_1_practice.xlsx
+++ b/week_2/spreadsheets/day_1_practice.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W2D1-practice" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/week_2/spreadsheets/day_1_practice.xlsx
+++ b/week_2/spreadsheets/day_1_practice.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,69 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/week_2/spreadsheets/day_1_practice.xlsx
+++ b/week_2/spreadsheets/day_1_practice.xlsx
@@ -439,6 +439,11 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rolley</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -446,6 +451,11 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -453,6 +463,11 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Balenga</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -460,6 +475,11 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Issac</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -467,6 +487,11 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cruise</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -474,6 +499,11 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Depp</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +511,11 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heard</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -488,11 +523,21 @@
           <t>Gabriel</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Qiao</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Biden</t>
         </is>
       </c>
     </row>
